--- a/formatos_hoja_de_calculo/Formato - Listado SOBREEDAD.xlsx
+++ b/formatos_hoja_de_calculo/Formato - Listado SOBREEDAD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0572A8B5-13C5-40A3-8F73-85B037AA696F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AAA89A9-2EB4-4932-A2B0-56F268971A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -180,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,6 +217,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,16 +565,19 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="41.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="8" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="4.42578125" customWidth="1"/>
     <col min="12" max="12" width="35.42578125" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -597,7 +614,7 @@
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
     </row>
-    <row r="4" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -607,10 +624,10 @@
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
